--- a/model.xlsx
+++ b/model.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
   <si>
     <t>User</t>
   </si>
@@ -62,9 +63,6 @@
     <t>profile_photo</t>
   </si>
   <si>
-    <t>gender</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -92,19 +90,10 @@
     <t>state_id</t>
   </si>
   <si>
-    <t>first_line</t>
-  </si>
-  <si>
-    <t>second_line</t>
-  </si>
-  <si>
     <t>address_id</t>
   </si>
   <si>
-    <t>date_of_birth</t>
-  </si>
-  <si>
-    <t>Guardian</t>
+    <t>guardian_id</t>
   </si>
   <si>
     <t>Subject</t>
@@ -128,9 +117,6 @@
     <t>variables</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
     <t>figure</t>
   </si>
   <si>
@@ -152,19 +138,64 @@
     <t>rightoption</t>
   </si>
   <si>
-    <t>QuestionDetail</t>
-  </si>
-  <si>
-    <t>GeneratedQuestionDetails</t>
-  </si>
-  <si>
-    <t>question_details_id</t>
-  </si>
-  <si>
     <t>variable_values</t>
   </si>
   <si>
-    <t>markedoption</t>
+    <t>UserAnswers</t>
+  </si>
+  <si>
+    <t>generated_question_id</t>
+  </si>
+  <si>
+    <t>GeneratedQuestion</t>
+  </si>
+  <si>
+    <t>iscorrect</t>
+  </si>
+  <si>
+    <t>Exam</t>
+  </si>
+  <si>
+    <t>exam_id</t>
+  </si>
+  <si>
+    <t>QuestionSolution</t>
+  </si>
+  <si>
+    <t>QuestionTopic</t>
+  </si>
+  <si>
+    <t>dfficulty_level(1,2,3,4,5)</t>
+  </si>
+  <si>
+    <t>gender(1=&gt;male, 2=&gt;female)</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>user_type(1=&gt;student, 2=&gt;guardian,3=&gt; admin)</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>mobile_number</t>
+  </si>
+  <si>
+    <t>marked_option</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>GuardianToUser</t>
+  </si>
+  <si>
+    <t>UserToExam</t>
+  </si>
+  <si>
+    <t>currently_active</t>
   </si>
 </sst>
 </file>
@@ -501,20 +532,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N24"/>
+  <dimension ref="B2:Q25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,22 +557,28 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
@@ -560,8 +600,11 @@
       <c r="N3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -569,22 +612,25 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
@@ -592,16 +638,22 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="N5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
@@ -609,163 +661,213 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="P6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D8" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D10" s="3" t="s">
+      <c r="H14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="H17" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="J17" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="L18" t="s">
+        <v>50</v>
+      </c>
+      <c r="N18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
         <v>31</v>
       </c>
-      <c r="G14" t="s">
+      <c r="L19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
         <v>32</v>
       </c>
-      <c r="I14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G15" t="s">
+      <c r="L20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
         <v>33</v>
       </c>
-      <c r="I15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G16" t="s">
+      <c r="L21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
         <v>34</v>
       </c>
-      <c r="I16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G17" t="s">
+      <c r="L22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
         <v>35</v>
       </c>
-      <c r="I17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G18" t="s">
+      <c r="L23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
         <v>36</v>
       </c>
-      <c r="I18" t="s">
+      <c r="L24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G20" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G21" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G22" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G23" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="I24" t="s">
+    <row r="25" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
         <v>46</v>
       </c>
     </row>
